--- a/medicine/Enfance/Contes_de_l'enfance_et_du_foyer/Contes_de_l'enfance_et_du_foyer.xlsx
+++ b/medicine/Enfance/Contes_de_l'enfance_et_du_foyer/Contes_de_l'enfance_et_du_foyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contes_de_l%27enfance_et_du_foyer</t>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Contes de l'enfance et du foyer (en allemand : Kinder- und Hausmärchen, abrégé en KHM) est un recueil de contes populaires allemands publié par Jacob et Wilhelm Grimm, d'abord en deux volumes, parus successivement le 20 décembre 1812 et en 1815[1]. De leur vivant, ils publieront sept éditions, la dernière en 1857. Lors de chaque nouvelle publication, ils tiendront compte des goûts du lectorat et créeront ainsi un trésor littéraire unique destiné surtout aux enfants. C’est notamment le manque de succès en 1812 qui incita les frères à réviser leurs textes.
+Contes de l'enfance et du foyer (en allemand : Kinder- und Hausmärchen, abrégé en KHM) est un recueil de contes populaires allemands publié par Jacob et Wilhelm Grimm, d'abord en deux volumes, parus successivement le 20 décembre 1812 et en 1815. De leur vivant, ils publieront sept éditions, la dernière en 1857. Lors de chaque nouvelle publication, ils tiendront compte des goûts du lectorat et créeront ainsi un trésor littéraire unique destiné surtout aux enfants. C’est notamment le manque de succès en 1812 qui incita les frères à réviser leurs textes.
 Les contes — ceux repris dans la dernière édition — sont souvent désignés par un code constitué des trois lettres KHM (pour Kinder- und Hausmärchen) suivies d'un numéro allant de 1 à 200. Ainsi la version Grimm de Blanche-Neige, par exemple, est-elle désignée par le code KHM 53. Il existe un conte « numéro bis », KHM 151*, Les Douze Valets paresseux, de sorte que le recueil contient, depuis la dernière édition, en tout 201 histoires.
 Le recueil est aujourd'hui le plus souvent rebaptisé en français Contes des frères Grimm, ou simplement Contes de Grimm. Depuis 2005, l'ouvrage figure au Registre international Mémoire du monde de l'UNESCO.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contes_de_l%27enfance_et_du_foyer</t>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,16 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1803, les frères Grimm rencontrent les écrivains romantiques Clemens Brentano et Ludwig Achim von Arnim à l'Université de Marbourg, qui éveillent chez eux l'intérêt pour les vieux contes populaires. À Cassel, ils commencent à collecter et à mettre par écrit des contes qui, selon eux, étaient transmis depuis des générations. Parmi leurs sources figurent Dorothea Viehmann, une conteuse locale qui n'était pas une paysanne, comme les frères Grimm la présenteront, mais une femme cultivée[2], ainsi que deux familles huguenotes, les Hassenpflug et les Wild, qui leur font découvrir plusieurs contes d'origine française.
-Ils s'inspirent également de la plume de Charles Perrault[3], dont les histoires, cependant, étaient non seulement issues de la tradition orale mais aussi puisées dans des recueils de collecteurs français et italiens, comme Giovanni Francesco Straparola et, surtout, Giambattista Basile, en qui les Grimm reconnaissent d'ailleurs le premier écrivain à avoir collecté des contes dans un recueil spécialement consacré à ce genre de récit.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1803, les frères Grimm rencontrent les écrivains romantiques Clemens Brentano et Ludwig Achim von Arnim à l'Université de Marbourg, qui éveillent chez eux l'intérêt pour les vieux contes populaires. À Cassel, ils commencent à collecter et à mettre par écrit des contes qui, selon eux, étaient transmis depuis des générations. Parmi leurs sources figurent Dorothea Viehmann, une conteuse locale qui n'était pas une paysanne, comme les frères Grimm la présenteront, mais une femme cultivée, ainsi que deux familles huguenotes, les Hassenpflug et les Wild, qui leur font découvrir plusieurs contes d'origine française.
+Ils s'inspirent également de la plume de Charles Perrault, dont les histoires, cependant, étaient non seulement issues de la tradition orale mais aussi puisées dans des recueils de collecteurs français et italiens, comme Giovanni Francesco Straparola et, surtout, Giambattista Basile, en qui les Grimm reconnaissent d'ailleurs le premier écrivain à avoir collecté des contes dans un recueil spécialement consacré à ce genre de récit.
 De l'avis de bon nombre de chercheurs, le portrait que donnaient d'eux-mêmes les deux hommes, en collecteurs consciencieux d'anciennes traditions, n'est dans une large mesure qu'une coupable fiction du climat romantique de l'époque[réf. souhaitée] : leur recueil représente davantage un mélange de nouveaux textes, de contes littéraires et de contes populaires en partie largement remodelés. On peut en effet observer certains traitements parfois très importants subis par les contes simplement en comparant certains d'entre eux dans l'édition originale de 1812 et 1815 et leur version dans la dernière édition de 1857.
-Dès octobre 1810, les frères Grimm mettent à la disposition de Clemens Brentano un premier manuscrit contenant 46 contes, dont au moins 13 tirés de sources littéraires (et dont trois sont d'origine française)[4]. À partir de mars 1811, Brentano ne leur ayant pas répondu, ils commencent à s'atteler au projet de publier un volume par eux-mêmes[5].
+Dès octobre 1810, les frères Grimm mettent à la disposition de Clemens Brentano un premier manuscrit contenant 46 contes, dont au moins 13 tirés de sources littéraires (et dont trois sont d'origine française). À partir de mars 1811, Brentano ne leur ayant pas répondu, ils commencent à s'atteler au projet de publier un volume par eux-mêmes.
 Le 20 décembre 1812, les frères Grimm publient le premier volume de la première édition, qui contient 86 histoires. Le second volume, 70 histoires, suivra en 1814. Pour la deuxième édition, deux volumes paraissent en 1819 et un troisième en 1822, totalisant 170 histoires. La troisième édition sort en 1837, la quatrième en 1840, la cinquième en 1843, et une sixième et une septième respectivement en 1850 et 1857. Au fil des éditions, des contes sont ajoutés, d'autres sont laissés de côté, jusqu'à la septième édition, dernière parue du vivant des deux frères, et qui comporte deux cent onze contes. Les différentes éditions sont toutes largement illustrées, d'abord par Philipp Grot Johann et, après la mort de celui-ci en 1892, par Robert Leinweber.
-Les premiers volumes feront l'objet de nombreuses critiques du fait que, malgré l'intitulé « Contes de l'enfance », ils sont jugés comme ne convenant pas à des enfants, en raison à la fois des informations de nature scientifique qui y sont incluses et de certains sujets[6]. De nombreuses modifications intervenues au cours des différentes éditions – comme le fait de transformer la méchante mère dans la première édition de Blanche-Neige et de Hansel et Gretel en marâtre, sont sans doute en partie des concessions opérées en fonction de ces critiques. Ainsi, des allusions sexuelles ont été supprimées, comme la question de Raiponce demandant innocemment pourquoi sa robe autour de sa taille commence à la gêner, ce qui est une façon naïve de révéler qu'elle est enceinte, et les visites du prince à la marâtre. La violence, cependant, augmente quant à elle à de nombreux égards, en particulier dans les châtiments réservés aux méchants[7].
+Les premiers volumes feront l'objet de nombreuses critiques du fait que, malgré l'intitulé « Contes de l'enfance », ils sont jugés comme ne convenant pas à des enfants, en raison à la fois des informations de nature scientifique qui y sont incluses et de certains sujets. De nombreuses modifications intervenues au cours des différentes éditions – comme le fait de transformer la méchante mère dans la première édition de Blanche-Neige et de Hansel et Gretel en marâtre, sont sans doute en partie des concessions opérées en fonction de ces critiques. Ainsi, des allusions sexuelles ont été supprimées, comme la question de Raiponce demandant innocemment pourquoi sa robe autour de sa taille commence à la gêner, ce qui est une façon naïve de révéler qu'elle est enceinte, et les visites du prince à la marâtre. La violence, cependant, augmente quant à elle à de nombreux égards, en particulier dans les châtiments réservés aux méchants.
 Pour satisfaire le goût contemporain du public bourgeois prédominant, d'importants détails seront aussi modifiés. D'édition en édition, les textes seront ainsi remaniés, en partie édulcorés et teintés de morale chrétienne et la terminologie sera germanisée pour cacher les origines françaises de la plupart des contes. Lorsque le conte Le Chat botté fut démasqué comme un conte français de Charles Perrault, il a dû quitter l’œuvre des frères Grimm, mais La Belle au bois dormant eut cependant le droit de rester. Dans leur préface de l'édition de 1815, les Grimm disent explicitement que leur recueil se veut éducatif. Wilhelm Grimm, qui sera pratiquement tout seul à revoir les contes à partir de la deuxième édition de 1819, y introduira quantité d'expressions et de formules métaphoriques.
 Par le truchement de Perrault, et à cause de l'origine huguenote de Dorothea Viehmann et des familles de Cassel Hassenpflug et Wild – ceux-ci fréquentaient les Grimm, et Wilhelm devait même plus tard épouser l'une des filles Wild –, de nombreux contes littéraires et variantes de contes populaires français viendront également influencer le recueil. Pour obtenir un recueil de contes « purement allemands », quelques-uns des récits arrivés dans le domaine linguistique allemand mais venus de France, comme Le Chat botté ou La Barbe bleue, seront écartés dès la deuxième édition. Les modifications de cette nature ne seront cependant pas très nombreuses car les frères Grimm savaient fort bien que, par exemple, il existait également une version française, dotée d'une fin tragique, du Petit Chaperon rouge. De ce fait, une délimitation nationale posait problème, étant donné que quelques contes, comme Cendrillon, ont une origine et une diffusion plus largement européennes. Dans leur préface des Contes, les Grimm insistent pourtant sur le fait que leur recueil se compose de « vrais contes hessois », dont l'origine remonte aux anciens mythes nordiques et germaniques ; que Dorothea Viehmann, leur principale source, fût, non pas une paysanne hessoise, mais une couturière cultivée dont les racines étaient françaises, ils ne disent mot. Dans le manuscrit des Contes retrouvé en 1927 dans une abbaye alsacienne, on trouve cependant des notes concernant les origines françaises de certains récits et les parallèles avec les contes de Perrault.
 En 1825, les frères Grimm publient une Kleine Ausgabe (« Petite édition »), une sélection de cinquante contes conçus pour de jeunes lecteurs. Cette version pour enfants connaîtra dix éditions successives de 1825 à 1858.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Contes_de_l%27enfance_et_du_foyer</t>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,10 +567,12 @@
           <t>Influence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le recueil des frères Grimm exercera une large influence. W. H. Auden, durant la Seconde Guerre mondiale, le célèbrera comme l'une des œuvres fondatrices de la culture occidentale[8]. Les contes eux-mêmes ont été utilisés à des fins très variées. Les Nazis les louaient comme des contes populaires montrant des enfants aux instincts raciaux sains en quête de conjoints « purs » concernant la race, à tel point d'ailleurs que les forces alliées mirent en garde contre ces récits[9]. Certains écrivains traitant de l'holocauste ont combiné leurs mémoires avec les contes, comme Jane Yolen dans Briar Rose[10].
-L'œuvre des frères Grimm a influencé d'autres collecteurs, les inspirant dans la collecte de contes et les amenant à croire, d'une façon similaire, dans un esprit de nationalisme romantique, que les contes d'un pays étaient particulièrement représentatifs de celui-ci, en négligeant l'influence interculturelle. Parmi ces collecteurs figurent le Russe Alexandre Afanassiev, les Norvégiens Peter Christen Asbjørnsen et Jørgen Moe, l'Anglais Joseph Jacobs, ainsi que Jeremiah Curtin, un Américain qui recueillera des contes irlandais[11]. L'accueil reçu par leurs recueils ne fut pas toujours enjoué[Quoi ?]. Joseph Jacobs sera en partie inspiré du fait qu'il se plaignait que les enfants anglais ne lisaient pas de contes de fée anglais[12] et, selon ses propres termes, « ce que Perrault a commencé, les Grimm l'ont achevé »[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le recueil des frères Grimm exercera une large influence. W. H. Auden, durant la Seconde Guerre mondiale, le célèbrera comme l'une des œuvres fondatrices de la culture occidentale. Les contes eux-mêmes ont été utilisés à des fins très variées. Les Nazis les louaient comme des contes populaires montrant des enfants aux instincts raciaux sains en quête de conjoints « purs » concernant la race, à tel point d'ailleurs que les forces alliées mirent en garde contre ces récits. Certains écrivains traitant de l'holocauste ont combiné leurs mémoires avec les contes, comme Jane Yolen dans Briar Rose.
+L'œuvre des frères Grimm a influencé d'autres collecteurs, les inspirant dans la collecte de contes et les amenant à croire, d'une façon similaire, dans un esprit de nationalisme romantique, que les contes d'un pays étaient particulièrement représentatifs de celui-ci, en négligeant l'influence interculturelle. Parmi ces collecteurs figurent le Russe Alexandre Afanassiev, les Norvégiens Peter Christen Asbjørnsen et Jørgen Moe, l'Anglais Joseph Jacobs, ainsi que Jeremiah Curtin, un Américain qui recueillera des contes irlandais. L'accueil reçu par leurs recueils ne fut pas toujours enjoué[Quoi ?]. Joseph Jacobs sera en partie inspiré du fait qu'il se plaignait que les enfants anglais ne lisaient pas de contes de fée anglais et, selon ses propres termes, « ce que Perrault a commencé, les Grimm l'ont achevé ».
 Trois œuvres individuelles de Wilhelm Grimm sont Altdänische Heldenlieder, Balladen und Märchen (1811), Über deutsche Runen (1821) et Die deutsche Heldensage (1829).
 </t>
         </is>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Contes_de_l%27enfance_et_du_foyer</t>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,11 +602,48 @@
           <t>Liste des contes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'abréviation « KHM » est utilisée pour Kinder- und Hausmärchen, le titre original. À noter que les titres en français peuvent varier assez fortement selon les traductions[14].
-À partir de la 1re édition, volume 1 (1812)
-KHM 1 : Le Roi-Grenouille ou Henri-le-Ferré, Le Roi Grenouille ou Henri de Fer ou La Fille du Roi et la Grenouille (Der Froschkönig oder der eiserne Heinrich)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abréviation « KHM » est utilisée pour Kinder- und Hausmärchen, le titre original. À noter que les titres en français peuvent varier assez fortement selon les traductions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>À partir de la 1re édition, volume 1 (1812)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KHM 1 : Le Roi-Grenouille ou Henri-le-Ferré, Le Roi Grenouille ou Henri de Fer ou La Fille du Roi et la Grenouille (Der Froschkönig oder der eiserne Heinrich)
 KHM 2 : Chat et souris associés (Katze und Maus in Gesellschaft)
 KHM 3 : L'Enfant de Marie ou L'Enfant de la bonne Vierge (Marienkind)
 KHM 4 : Conte de celui qui s'en alla pour connaître la peur (Märchen von einem, der auszog das Fürchten zu lernen)
@@ -614,7 +667,7 @@
 KHM 22 : L'Énigme ou La Devinette (de) (Das Rätsel, à partir de la 2e édition ; 1re édition KHM 22a : Wie Kinder Schlachtens miteinander gespielt haben)
 KHM 23 : Du souriceau, de l'oiselet et de la saucisse (de) (Von dem Mäuschen, Vögelchen und der Bratwurst)
 KHM 24 : Dame Holle ou Dame Hiver (Frau Holle)
-KHM 25 : Les Sept Corbeaux (Die sieben Raben)[15]
+KHM 25 : Les Sept Corbeaux (Die sieben Raben)
 KHM 26 : Le Petit Chaperon rouge (Rotkäppchen)
 KHM 27 : Les Musiciens de la fanfare de Brême ou Les Musiciens de Brême (Die Bremer Stadtmusikanten, à partir de la 2e édition ; 1re édition KHM 27a : Der Tod und der Gänsehirt)
 KHM 28 : L'Os chanteur (de) (Der singende Knochen)
@@ -675,15 +728,49 @@
 KHM 83 : Jean-la-Chance (Hans im Glück), à partir de la 2e édition ; 1re édition KHM 153 : L'Argent du Ciel (de) (Die Sterntaler) sous le titre Das arme Mädchen
 KHM 84 : Jean marié (de) (Hans heiratet), à partir de la 2e édition ; 1re édition KHM 84a : La Marâtre (de) (Die Schwiegermutter)
 KHM 85 : Les Enfants d'or (de) (Die Goldkinder), à partir de la 2e édition, auparavant à la place de KHM 63 ; 1re édition KHM 85a, b, c, d : Schneeblume, Prinzessin mit der Laus, Vom Prinz Johannes, Der gute Lappen sous le titre général Fragmente
-KHM 86 : Le Renard et les Oies (de) (Der Fuchs und die Gänse)
-À partir de la 1re édition, volume 2 (1815)
-KHM 87 : Le Pauvre et le Riche (de) (Der Arme und der Reiche)
+KHM 86 : Le Renard et les Oies (de) (Der Fuchs und die Gänse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>À partir de la 1re édition, volume 2 (1815)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KHM 87 : Le Pauvre et le Riche (de) (Der Arme und der Reiche)
 KHM 88 : La Fauvette-qui-saute-et-qui-chante ou L'Alouette qui chante et sautille (Das singende springende Löweneckerchen)
 KHM 89 : La Petite Gardeuse d'oies ou |La Gardeuse d'oies (Die Gänsemagd)
 KHM 90 : Le Jeune Géant (de) (Der junge Riese)
 KHM 91 : Le Petit Gnome (de) (Dat Erdmänneken)
 KHM 92 : Le Roi de la Montagne d'Or (de) (Der König vom goldenen Berg)
-KHM 93 : Le Corbeau (de) (Die Rabe)[15]
+KHM 93 : Le Corbeau (de) (Die Rabe)
 KHM 94 : L'Intelligente Fille du paysan (de) (Die kluge Bauerntochter)
 KHM 95 : Le Vieil Hildebrand (de) (Der alte Hildebrand), à partir de la 2e édition ; 1re édition KHM 99 : L'Esprit dans la bouteille (de) (Der Geist im Glas)
 KHM 96 : Les Trois Oisillons (de) (De drei Vügelkens)
@@ -746,23 +833,125 @@
 KHM 152 : Le Petit Berger (de) (Das Hirtenbüblein, à partir de la 2e édition ; 1re édition KHM 152a : Die heilige Frau Kummernis)
 KHM 153 : L'Argent du Ciel (de) (Die Sterntaler, à partir de la 2e édition, auparavant à la place de KHM 83)
 KHM 154 : Le Sou volé (de) (Der gestohlene Heller, à partir de la 2e édition, auparavant à la place de KHM 7)
-KHM 155 : Le Choix d'une épouse (de) (Die Brautschau), à partir de la 2e édition ; 1re édition KHM 160 : Conte-devinette (de) (Rätselmärchen)
-À partir de la 2e édition (1819)
-KHM 156 : Les Petits Nœuds (de) (Die Schlickerlinge)
+KHM 155 : Le Choix d'une épouse (de) (Die Brautschau), à partir de la 2e édition ; 1re édition KHM 160 : Conte-devinette (de) (Rätselmärchen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À partir de la 2e édition (1819)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KHM 156 : Les Petits Nœuds (de) (Die Schlickerlinge)
 KHM 157 : Le Moineau et ses quatre petits (de) (Der Sperling und seine vier Kinder, à partir de la 2e édition, auparavant à la place de KHM 35)
 KHM 158 : Le Conte du Pays de Cocagne (de) (Das Märchen vom Schlauraffenland, à partir de la 2e édition, auparavant à la place de KHM 153)
 KHM 159 : Le Conte menteur des Dithmarses (de) (Das Diethmarsische Lügenmärchen, à partir de la 2e édition, auparavant à la place de KHM 154)
-KHM 160 : Conte-devinette (de) (Rätselmärchen, à partir de la 2e édition, auparavant à la place de KHM 155)
-À partir de la 3e édition (1837)
-KHM 161 : Blanche-Neige et Rose-Rouge (Schneeweißchen und Rosenrot)
+KHM 160 : Conte-devinette (de) (Rätselmärchen, à partir de la 2e édition, auparavant à la place de KHM 155)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À partir de la 3e édition (1837)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>KHM 161 : Blanche-Neige et Rose-Rouge (Schneeweißchen und Rosenrot)
 KHM 162 : Un valet de valeur (de) (Der kluge Knecht)
 KHM 163 : Le Cercueil de verre (de) (Der gläserne Sarg)
 KHM 164 : Henri-le-Paresseux (de) (Der faule Heinz)
 KHM 165 : L'Oiseau griffon (de) (Der Vogel Greif)
 KHM 166 : Jean-le-Fort (de) (Der starke Hans)
-KHM 167 : Le Petit Paysan au Ciel (de) (Das Bürle im Himmel)
-À partir de la 4e édition (1840)
-KHM 168 : La Maigre Lise (de) (Die hagere Liese)
+KHM 167 : Le Petit Paysan au Ciel (de) (Das Bürle im Himmel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>À partir de la 4e édition (1840)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>KHM 168 : La Maigre Lise (de) (Die hagere Liese)
 KHM 169 : La Maison dans la forêt (Das Waldhaus)
 KHM 170 : Partager le meilleur et le pire (de) (Lieb und Leid teilen)
 KHM 171 : Le Roitelet (de) (Der Zaunkönig)
@@ -771,9 +960,43 @@
 KHM 174 : La Chouette (de) (Die Eule)
 KHM 175 : La Lune (de) (Der Mond, à partir de la 7e édition ; de la 4e à la 6e édition KHM 175a : Das Unglück)
 KHM 176 : Les Temps de la vie (de) (Die Lebenszeit)
-KHM 177 : Les Messagers de la mort (de) (Die Boten des Todes)
-À partir de la 5e édition (1843)
-KHM 178 : Maître Poinçon (de) (Meister Pfriem)
+KHM 177 : Les Messagers de la mort (de) (Die Boten des Todes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>À partir de la 5e édition (1843)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KHM 178 : Maître Poinçon (de) (Meister Pfriem)
 KHM 179 : La Gardeuse d'oies à la fontaine (Die Gänsehirtin am Brunnen)
 KHM 180 : Les Différents Fils d'Ève (de) (Die ungleichen Kinder Evas)
 KHM 181 : L'Ondine de l'étang (Die Nixe im Teich)
@@ -786,19 +1009,87 @@
 KHM 188 : Fuseau, navette et aiguille (de) (Spindel, Weberschiffchen und Nadel)
 KHM 189 : Le Paysan et le Diable (de) (Der Bauer und der Teufel])
 KHM 190 : Les Miettes sur la table (de) (Die Brosamen auf dem Tisch)
-KHM 191 : Le Petit Lièvre de mer (de) (Das Meerhäschen)[16], à partir de la 7e édition ; 5e et 6e édition KHM 191a : Le Brigand et ses fils (de)  (Der Räuber und seine Söhne)
+KHM 191 : Le Petit Lièvre de mer (de) (Das Meerhäschen), à partir de la 7e édition ; 5e et 6e édition KHM 191a : Le Brigand et ses fils (de)  (Der Räuber und seine Söhne)
 KHM 192 : Le Maître-voleur (Der Meisterdieb)
-KHM 193 : Le Tambour (de) (Der Trommler)[15]
-À partir de la 6e édition (1850)
-KHM 194 : L'Épi de blé (de) (Die Kornähre)
+KHM 193 : Le Tambour (de) (Der Trommler)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>À partir de la 6e édition (1850)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>KHM 194 : L'Épi de blé (de) (Die Kornähre)
 KHM 195 : La Tombe (de) (Der Grabhügel)
-KHM 196 : Le Vieux Cricrac (de) (Oll Rinkrank)[15]
+KHM 196 : Le Vieux Cricrac (de) (Oll Rinkrank)
 KHM 197 : La Boule de cristal (de) (Die Kristallkugel)
 KHM 198 : Demoiselle Maleen (Jungfrau Maleen)
 KHM 199 : Les Bottes en cuir de buffle (de) (Der Stiefel von Büffelleder)
-KHM 200 : La Clef d'or (Der goldene Schlüssel, à partir de la 1re édition, volume 2, toujours à la fin)
-Légendes de l'enfance (Appendice, à partir de la 2e édition)
-KHM 201 : Saint Joseph dans la forêt (de) (Der heilige Joseph im Walde)
+KHM 200 : La Clef d'or (Der goldene Schlüssel, à partir de la 1re édition, volume 2, toujours à la fin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Légendes de l'enfance (Appendice, à partir de la 2e édition)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KHM 201 : Saint Joseph dans la forêt (de) (Der heilige Joseph im Walde)
 KHM 202 : Les Douze Apôtres (de) (Die zwölf Apostel)
 KHM 203 : La Rose (de) (Die Rose)
 KHM 204 : Humilité et pauvreté sont le chemin du Ciel (de) (Armut und Demut führen zum Himmel)
@@ -807,9 +1098,43 @@
 KHM 207 : La Petite Coupe de la Mère de Dieu (de) (Muttergottesgläschen)
 KHM 208 : La Vieille Maman (de) (Das alte Mütterchen)
 KHM 209 : Le Banquet céleste (de) (Die himmlische Hochzeit, à partir de la 2e édition, auparavant à la place de KHM 121)
-KHM 210 : La Baguette de coudrier (de) (Die Haselrute, à partir de la 6e édition)
-Récapitulatif des contes retranchés
-Ces contes avaient été retranchés par les frères Grimm pour diverses raisons (amoralité, violence, origine étrangère, versions multiples, etc.). La numérotation est celle adoptée par Natacha Rimasson-Fertin (voir #Bibliographie).
+KHM 210 : La Baguette de coudrier (de) (Die Haselrute, à partir de la 6e édition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Contes_de_l'enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contes_de_l%27enfance_et_du_foyer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Récapitulatif des contes retranchés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ces contes avaient été retranchés par les frères Grimm pour diverses raisons (amoralité, violence, origine étrangère, versions multiples, etc.). La numérotation est celle adoptée par Natacha Rimasson-Fertin (voir #Bibliographie).
 CR 1 : Le Rossignol et l'Orvet (de) (Von der Nachtigall und der Blindschleiche)
 CR 2 : La Main avec le Couteau (de) (Die Hand mit dem Messer)
 CR 3 : Comment des enfants ont joué au boucher (de) (I, II) (Wie Kinder Schlachtens miteinander gespielt haben)
